--- a/金融/个股机器学习/风险投资组合分析.xlsx
+++ b/金融/个股机器学习/风险投资组合分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11470\Desktop\HARISAN\Various-Codes\金融\个股机器学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7EBFFF-777C-43E7-A2F5-0553DF8CD7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E65CF-2CE5-4E1C-A4F7-E5618DCFE635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,18 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,34 +62,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>603600.SH</t>
+    <t>688286.SH</t>
   </si>
   <si>
-    <t>600926.SH</t>
+    <t>688700.SH</t>
   </si>
   <si>
-    <t>688271.SH</t>
+    <t>603392.SH</t>
   </si>
   <si>
-    <t>603259.SH</t>
+    <t>603097.SH</t>
   </si>
   <si>
-    <t>603066.SH</t>
+    <t>002480.SZ</t>
   </si>
   <si>
-    <t>600919.SH</t>
+    <t>002992.SZ</t>
   </si>
   <si>
-    <t>600905.SH</t>
+    <t>600766.SH</t>
   </si>
   <si>
-    <t>688303.SH</t>
+    <t>301031.SZ</t>
   </si>
   <si>
-    <t>601898.SH</t>
+    <t>688377.SH</t>
   </si>
   <si>
-    <t>002259.SZ</t>
+    <t>002395.SZ</t>
   </si>
 </sst>
 </file>
@@ -172,11 +183,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
@@ -447,7 +455,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -461,7 +469,7 @@
       </c>
       <c r="B1" s="1">
         <f ca="1">[1]!thsiFinD("ths_28rnhsyl_fund",C1,D4)</f>
-        <v>2.4780981916665001</v>
+        <v>2.0981721266654998</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -485,43 +493,43 @@
       </c>
       <c r="E2" s="4" t="str">
         <f>B3&amp;A3</f>
-        <v>永艺股份603600.SH</v>
+        <v>敏芯股份688286.SH</v>
       </c>
       <c r="F2" t="str">
         <f>B4&amp;A4</f>
-        <v>联影医疗688271.SH</v>
+        <v>东威科技688700.SH</v>
       </c>
       <c r="G2" t="str">
         <f>B5&amp;A5</f>
-        <v>药明康德603259.SH</v>
+        <v>万泰生物603392.SH</v>
       </c>
       <c r="H2" t="str">
         <f>B6&amp;A6</f>
-        <v>音飞储存603066.SH</v>
+        <v>江苏华辰603097.SH</v>
       </c>
       <c r="I2" t="str">
         <f>B7&amp;A7</f>
-        <v>杭州银行600926.SH</v>
+        <v>新筑股份002480.SZ</v>
       </c>
       <c r="J2" t="str">
         <f>B8&amp;A8</f>
-        <v>江苏银行600919.SH</v>
+        <v>宝明科技002992.SZ</v>
       </c>
       <c r="K2" t="str">
         <f>B9&amp;A9</f>
-        <v>三峡能源600905.SH</v>
+        <v>*ST园城600766.SH</v>
       </c>
       <c r="L2" t="str">
         <f>B10&amp;A10</f>
-        <v>大全能源688303.SH</v>
+        <v>中熔电气301031.SZ</v>
       </c>
       <c r="M2" t="str">
         <f>B11&amp;A11</f>
-        <v>中煤能源601898.SH</v>
+        <v>迪威尔688377.SH</v>
       </c>
       <c r="N2" t="str">
         <f>B12&amp;A12</f>
-        <v>ST升达002259.SZ</v>
+        <v>双象股份002395.SZ</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -530,15 +538,15 @@
       </c>
       <c r="B3" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A3)</f>
-        <v>永艺股份</v>
+        <v>敏芯股份</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A3,$D$4,100,"")</f>
-        <v>12.55</v>
+        <v>43.59</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">TODAY()</f>
-        <v>45314</v>
+        <v>45318</v>
       </c>
       <c r="E3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D3)</f>
@@ -583,230 +591,230 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A4)</f>
-        <v>联影医疗</v>
+        <v>东威科技</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A4,$D$4,100,"")</f>
-        <v>134.93</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="D4" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45313</v>
+        <v>45317</v>
       </c>
       <c r="E4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D4)</f>
-        <v>0</v>
+        <v>-4.617067833698</v>
       </c>
       <c r="F4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D4)</f>
-        <v>0.48406315162348001</v>
+        <v>-4.7652748289691003</v>
       </c>
       <c r="G4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D4)</f>
-        <v>-0.57417545733744002</v>
+        <v>-6.6247101689299995E-2</v>
       </c>
       <c r="H4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D4)</f>
-        <v>1.1527377521614</v>
+        <v>-2.5594970812753002</v>
       </c>
       <c r="I4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D4)</f>
-        <v>-0.66985645933013005</v>
+        <v>0.87912087912087999</v>
       </c>
       <c r="J4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D4)</f>
-        <v>-0.84507042253521003</v>
+        <v>-3.2319032319032002</v>
       </c>
       <c r="K4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D4)</f>
-        <v>-0.23529411764704999</v>
+        <v>-2.1456436931079002</v>
       </c>
       <c r="L4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D4)</f>
-        <v>-1.7160161507402001</v>
+        <v>-3.4542789078248002</v>
       </c>
       <c r="M4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D4)</f>
-        <v>-1.3232514177693999</v>
+        <v>-4.9230769230769003</v>
       </c>
       <c r="N4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D4)</f>
-        <v>-0.60975609756098004</v>
+        <v>-3.0674846625767</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A5)</f>
-        <v>药明康德</v>
+        <v>万泰生物</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A5,$D$4,100,"")</f>
-        <v>74.459999999999994</v>
+        <v>60.34</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">D4-1</f>
-        <v>45312</v>
+        <v>45316</v>
       </c>
       <c r="E5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D5)</f>
-        <v>0</v>
+        <v>-2.7038535235255998</v>
       </c>
       <c r="F5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D5)</f>
-        <v>0</v>
+        <v>2.0216606498195002</v>
       </c>
       <c r="G5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D5)</f>
-        <v>0</v>
+        <v>-2.6129032258064</v>
       </c>
       <c r="H5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D5)</f>
-        <v>0</v>
+        <v>0.67811934900542004</v>
       </c>
       <c r="I5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D5)</f>
-        <v>0</v>
+        <v>4.1189931350114</v>
       </c>
       <c r="J5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D5)</f>
-        <v>0</v>
+        <v>1.1276758409786001</v>
       </c>
       <c r="K5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D5)</f>
-        <v>0</v>
+        <v>-0.64599483204134001</v>
       </c>
       <c r="L5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D5)</f>
-        <v>0</v>
+        <v>-2.2218240458699001</v>
       </c>
       <c r="M5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D5)</f>
-        <v>0</v>
+        <v>-0.81383519837232998</v>
       </c>
       <c r="N5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D5)</f>
-        <v>0</v>
+        <v>1.4943960149440001</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A6)</f>
-        <v>音飞储存</v>
+        <v>江苏华辰</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A6,$D$4,100,"")</f>
-        <v>14.04</v>
+        <v>21.7</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ref="D6:D48" ca="1" si="0">D5-1</f>
-        <v>45311</v>
+        <v>45315</v>
       </c>
       <c r="E6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D6)</f>
-        <v>0</v>
+        <v>-3.1746031746032002</v>
       </c>
       <c r="F6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D6)</f>
-        <v>0</v>
+        <v>-1.3064133016627</v>
       </c>
       <c r="G6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D6)</f>
-        <v>0</v>
+        <v>-3.6668738346799001</v>
       </c>
       <c r="H6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D6)</f>
-        <v>0</v>
+        <v>-0.80717488789238001</v>
       </c>
       <c r="I6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D6)</f>
-        <v>0</v>
+        <v>2.5821596244132001</v>
       </c>
       <c r="J6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D6)</f>
-        <v>0</v>
+        <v>-0.13361328497805</v>
       </c>
       <c r="K6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D6)</f>
-        <v>0</v>
+        <v>-0.38610038610038</v>
       </c>
       <c r="L6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D6)</f>
-        <v>0</v>
+        <v>-0.42818911685993999</v>
       </c>
       <c r="M6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D6)</f>
-        <v>0</v>
+        <v>-2.6732673267327001</v>
       </c>
       <c r="N6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D6)</f>
-        <v>0</v>
+        <v>0.37499999999999001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A7)</f>
-        <v>杭州银行</v>
+        <v>新筑股份</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A7,$D$4,100,"")</f>
-        <v>10.38</v>
+        <v>4.59</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45310</v>
+        <v>45314</v>
       </c>
       <c r="E7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D7)</f>
-        <v>9.9912357581068996</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D7)</f>
-        <v>2.1995585661009001</v>
+        <v>-0.94117647058822995</v>
       </c>
       <c r="G7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D7)</f>
-        <v>1.4494716878895</v>
+        <v>1.3543307086614</v>
       </c>
       <c r="H7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D7)</f>
-        <v>9.9841521394611998</v>
+        <v>-1.2400354295836999</v>
       </c>
       <c r="I7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D7)</f>
-        <v>-0.28625954198474002</v>
+        <v>-1.3888888888888999</v>
       </c>
       <c r="J7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D7)</f>
-        <v>0.56657223796033995</v>
+        <v>2.1247563352826999</v>
       </c>
       <c r="K7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D7)</f>
-        <v>0.71090047393365996</v>
+        <v>-0.63938618925832003</v>
       </c>
       <c r="L7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D7)</f>
-        <v>-0.93333333333334001</v>
+        <v>4.0660972892684999</v>
       </c>
       <c r="M7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D7)</f>
-        <v>-0.75046904315197005</v>
+        <v>-1.8941233608548</v>
       </c>
       <c r="N7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D7)</f>
-        <v>0</v>
+        <v>-2.4390243902439002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -815,55 +823,55 @@
       </c>
       <c r="B8" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A8)</f>
-        <v>江苏银行</v>
+        <v>宝明科技</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A8,$D$4,100,"")</f>
-        <v>7.04</v>
+        <v>51.2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45313</v>
       </c>
       <c r="E8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D8)</f>
-        <v>0.17559262510974</v>
+        <v>-7.6343072573043997</v>
       </c>
       <c r="F8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D8)</f>
-        <v>-2.2827575711460001E-2</v>
+        <v>-8.6021505376343992</v>
       </c>
       <c r="G8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D8)</f>
-        <v>3.2447552447552002</v>
+        <v>-5.5200119029905999</v>
       </c>
       <c r="H8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D8)</f>
-        <v>10.026155187444999</v>
+        <v>-10.003985651654</v>
       </c>
       <c r="I8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D8)</f>
-        <v>9.5510983763130997E-2</v>
+        <v>-6.0869565217390997</v>
       </c>
       <c r="J8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D8)</f>
-        <v>0.56980056980057003</v>
+        <v>-7.4007220216606999</v>
       </c>
       <c r="K8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D8)</f>
-        <v>0</v>
+        <v>-4.9817739975699</v>
       </c>
       <c r="L8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D8)</f>
-        <v>2.2843504943744</v>
+        <v>-7.1699413995174002</v>
       </c>
       <c r="M8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D8)</f>
-        <v>-0.65237651444547995</v>
+        <v>-7.8747203579417997</v>
       </c>
       <c r="N8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D8)</f>
-        <v>-0.30395136778116</v>
+        <v>-5.1474840948524996</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -872,55 +880,55 @@
       </c>
       <c r="B9" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A9)</f>
-        <v>三峡能源</v>
+        <v>*ST园城</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A9,$D$4,100,"")</f>
-        <v>4.24</v>
+        <v>15.05</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45308</v>
+        <v>45312</v>
       </c>
       <c r="E9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D9)</f>
-        <v>2.7051397655546001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D9)</f>
-        <v>-0.98696602124613997</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D9)</f>
-        <v>-2.5221540558964</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D9)</f>
-        <v>0.79086115992969996</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D9)</f>
-        <v>-0.47528517110265001</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D9)</f>
-        <v>-0.84745762711865003</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D9)</f>
-        <v>-1.8604651162790999</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D9)</f>
-        <v>-2.2659113628791001</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D9)</f>
-        <v>-0.64814814814815003</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D9)</f>
-        <v>-0.60422960725076003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -929,55 +937,55 @@
       </c>
       <c r="B10" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A10)</f>
-        <v>大全能源</v>
+        <v>中熔电气</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A10,$D$4,100,"")</f>
-        <v>29.21</v>
+        <v>105.37</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45307</v>
+        <v>45311</v>
       </c>
       <c r="E10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D10)</f>
-        <v>-1.4222222222222001</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D10)</f>
-        <v>0.72854215678833001</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D10)</f>
-        <v>0.96352374397796003</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D10)</f>
-        <v>-3.4775233248516</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D10)</f>
-        <v>2.1359223300971002</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D10)</f>
-        <v>1.4326647564470001</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D10)</f>
-        <v>-0.92165898617511999</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D10)</f>
-        <v>1.0437710437711001</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D10)</f>
-        <v>0.46511627906976999</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D10)</f>
-        <v>0.60790273556231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -986,55 +994,55 @@
       </c>
       <c r="B11" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A11)</f>
-        <v>中煤能源</v>
+        <v>迪威尔</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A11,$D$4,100,"")</f>
-        <v>10.44</v>
+        <v>18.54</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45306</v>
+        <v>45310</v>
       </c>
       <c r="E11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D11)</f>
-        <v>0.35682426404994999</v>
+        <v>-2.4816176470587998</v>
       </c>
       <c r="F11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D11)</f>
-        <v>-2.2761760242793E-2</v>
+        <v>-2.1670523879655001</v>
       </c>
       <c r="G11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D11)</f>
-        <v>1.1556669451406001</v>
+        <v>-2.5942028985507002</v>
       </c>
       <c r="H11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D11)</f>
-        <v>-4.1463414634145996</v>
+        <v>-10.007173601148001</v>
       </c>
       <c r="I11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D11)</f>
-        <v>1.0794896957802</v>
+        <v>-0.86206896551723999</v>
       </c>
       <c r="J11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D11)</f>
-        <v>0.86705202312138996</v>
+        <v>-3.0621172353456001</v>
       </c>
       <c r="K11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D11)</f>
-        <v>-0.45871559633029002</v>
+        <v>1.9195046439629</v>
       </c>
       <c r="L11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D11)</f>
-        <v>-0.53583389149364002</v>
+        <v>-3.5090636953268</v>
       </c>
       <c r="M11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D11)</f>
-        <v>1.7992424242424001</v>
+        <v>-0.35666518056174001</v>
       </c>
       <c r="N11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D11)</f>
-        <v>-0.90361445783131999</v>
+        <v>-5.3639846743295001</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1043,55 +1051,55 @@
       </c>
       <c r="B12" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A12)</f>
-        <v>ST升达</v>
+        <v>双象股份</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A12,$D$4,100,"")</f>
-        <v>3.26</v>
+        <v>15.8</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45305</v>
+        <v>45309</v>
       </c>
       <c r="E12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D12)</f>
-        <v>0</v>
+        <v>-2.1582733812949999</v>
       </c>
       <c r="F12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D12)</f>
-        <v>0</v>
+        <v>-0.48157453936347999</v>
       </c>
       <c r="G12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D12)</f>
-        <v>0</v>
+        <v>1.4855125753787</v>
       </c>
       <c r="H12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D12)</f>
-        <v>0</v>
+        <v>-4.4551062371486996</v>
       </c>
       <c r="I12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D12)</f>
-        <v>0</v>
+        <v>-2.3157894736842</v>
       </c>
       <c r="J12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D12)</f>
-        <v>0</v>
+        <v>-3.5443037974684</v>
       </c>
       <c r="K12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D12)</f>
-        <v>0</v>
+        <v>-2.4169184290030001</v>
       </c>
       <c r="L12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D12)</f>
-        <v>0</v>
+        <v>-1.0205761316872</v>
       </c>
       <c r="M12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D12)</f>
-        <v>0</v>
+        <v>-2.5206431986092999</v>
       </c>
       <c r="N12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D12)</f>
-        <v>0</v>
+        <v>-1.7741935483871001</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1099,47 +1107,47 @@
       <c r="B13" s="2"/>
       <c r="D13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45304</v>
+        <v>45308</v>
       </c>
       <c r="E13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D13)</f>
-        <v>0</v>
+        <v>-2.6099141706078002</v>
       </c>
       <c r="F13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D13)</f>
-        <v>0</v>
+        <v>-5.2756842522807998</v>
       </c>
       <c r="G13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D13)</f>
-        <v>0</v>
+        <v>-4.1178959244111999</v>
       </c>
       <c r="H13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D13)</f>
-        <v>0</v>
+        <v>-8.3254791077599997</v>
       </c>
       <c r="I13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D13)</f>
-        <v>0</v>
+        <v>-2.2633744855967</v>
       </c>
       <c r="J13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D13)</f>
-        <v>0</v>
+        <v>-5.9523809523809996</v>
       </c>
       <c r="K13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D13)</f>
-        <v>0</v>
+        <v>-2.6470588235294001</v>
       </c>
       <c r="L13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D13)</f>
-        <v>0</v>
+        <v>-2.1108604576216998</v>
       </c>
       <c r="M13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D13)</f>
-        <v>0</v>
+        <v>-3.4815436241611</v>
       </c>
       <c r="N13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D13)</f>
-        <v>0</v>
+        <v>-8.1481481481481008</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1147,127 +1155,127 @@
       <c r="B14" s="2"/>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45303</v>
+        <v>45307</v>
       </c>
       <c r="E14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D14)</f>
-        <v>-0.62056737588651001</v>
+        <v>-3.4826711749789001</v>
       </c>
       <c r="F14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D14)</f>
-        <v>-3.4432234432233999</v>
+        <v>0.15891934843066999</v>
       </c>
       <c r="G14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D14)</f>
-        <v>9.7560975609746997E-2</v>
+        <v>-3.1681005052573998</v>
       </c>
       <c r="H14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D14)</f>
-        <v>2.6711185308848</v>
+        <v>9.9861782999309003</v>
       </c>
       <c r="I14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D14)</f>
-        <v>0.79129574678535997</v>
+        <v>-1.6194331983806001</v>
       </c>
       <c r="J14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D14)</f>
-        <v>0.72780203784569997</v>
+        <v>-0.52108005684508996</v>
       </c>
       <c r="K14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D14)</f>
-        <v>0.92592592592593004</v>
+        <v>-0.87463556851310997</v>
       </c>
       <c r="L14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D14)</f>
-        <v>1.5991833957128001</v>
+        <v>-0.45713369155505001</v>
       </c>
       <c r="M14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D14)</f>
-        <v>1.2464046021093</v>
+        <v>-3.2860040567950999</v>
       </c>
       <c r="N14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D14)</f>
-        <v>-0.30030030030031002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="E15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D15)</f>
-        <v>0.80428954423592003</v>
+        <v>4.3762131639315003</v>
       </c>
       <c r="F15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D15)</f>
-        <v>-0.25575447570331999</v>
+        <v>-2.4985473561883</v>
       </c>
       <c r="G15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D15)</f>
-        <v>6.1076604554865002</v>
+        <v>-0.2316076294278</v>
       </c>
       <c r="H15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D15)</f>
-        <v>3.7229437229436999</v>
+        <v>9.9961991638159997</v>
       </c>
       <c r="I15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D15)</f>
-        <v>0.99900099900100003</v>
+        <v>-0.4032258064516</v>
       </c>
       <c r="J15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D15)</f>
-        <v>0.43859649122806998</v>
+        <v>-1.1086820737039</v>
       </c>
       <c r="K15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D15)</f>
-        <v>0.69930069930071004</v>
+        <v>-2.1677124928693998</v>
       </c>
       <c r="L15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D15)</f>
-        <v>1.1007911936704999</v>
+        <v>-1.8961447678993</v>
       </c>
       <c r="M15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D15)</f>
-        <v>-1.4177693761815</v>
+        <v>1.0245901639343999</v>
       </c>
       <c r="N15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D15)</f>
-        <v>0.30120481927712001</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45301</v>
+        <v>45305</v>
       </c>
       <c r="E16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D16)</f>
-        <v>0.53908355795147</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D16)</f>
-        <v>-2.7984942112366</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D16)</f>
-        <v>0.32640949554895998</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D16)</f>
-        <v>-3.8301415487093999</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D16)</f>
-        <v>9.9999999999997993E-2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D16)</f>
-        <v>-0.14598540145985001</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D16)</f>
-        <v>-0.23255813953488</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D16)</f>
@@ -1275,53 +1283,53 @@
       </c>
       <c r="M16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D16)</f>
-        <v>-0.75046904315197005</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D16)</f>
-        <v>-0.30030030030031002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45300</v>
+        <v>45304</v>
       </c>
       <c r="E17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D17)</f>
-        <v>8.9928057553971E-2</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D17)</f>
-        <v>1.9478638667632</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D17)</f>
-        <v>-8.8941595019253E-2</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D17)</f>
-        <v>6.9456812110417996</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D17)</f>
-        <v>0.50251256281407997</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D17)</f>
-        <v>0.58737151248164998</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D17)</f>
-        <v>0.23310023310023001</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D17)</f>
-        <v>2.4312896405919999</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D17)</f>
-        <v>1.3307984790875</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D17)</f>
@@ -1331,303 +1339,303 @@
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45299</v>
+        <v>45303</v>
       </c>
       <c r="E18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D18)</f>
-        <v>-1.4184397163121001</v>
+        <v>-3.8024104566286998</v>
       </c>
       <c r="F18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D18)</f>
-        <v>-1.1665354612467</v>
+        <v>-0.15470895378069999</v>
       </c>
       <c r="G18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D18)</f>
-        <v>-0.95433856996037003</v>
+        <v>-3.0254987448803998</v>
       </c>
       <c r="H18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D18)</f>
-        <v>0.98920863309354001</v>
+        <v>9.9916387959865993</v>
       </c>
       <c r="I18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D18)</f>
-        <v>-1.6798418972332001</v>
+        <v>-0.99800399201596002</v>
       </c>
       <c r="J18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D18)</f>
-        <v>0</v>
+        <v>-0.71317829457363002</v>
       </c>
       <c r="K18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D18)</f>
-        <v>-1.3793103448276001</v>
+        <v>1.8593840790238001</v>
       </c>
       <c r="L18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D18)</f>
-        <v>-1.6291161178510001</v>
+        <v>1.7288298383223999</v>
       </c>
       <c r="M18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D18)</f>
-        <v>-0.37878787878789</v>
+        <v>-1.8108651911469</v>
       </c>
       <c r="N18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D18)</f>
-        <v>-1.1869436201779999</v>
+        <v>2.7397260273973001</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="E19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D19)</f>
-        <v>0</v>
+        <v>5.0951086956512001E-2</v>
       </c>
       <c r="F19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D19)</f>
-        <v>0</v>
+        <v>2.5788534021028</v>
       </c>
       <c r="G19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D19)</f>
-        <v>0</v>
+        <v>-1.4453125</v>
       </c>
       <c r="H19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D19)</f>
-        <v>0</v>
+        <v>0.50420168067227</v>
       </c>
       <c r="I19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D19)</f>
-        <v>0</v>
+        <v>1.8292682926829</v>
       </c>
       <c r="J19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D19)</f>
-        <v>0</v>
+        <v>0.78125</v>
       </c>
       <c r="K19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D19)</f>
-        <v>0</v>
+        <v>3.9879154078550001</v>
       </c>
       <c r="L19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D19)</f>
-        <v>0</v>
+        <v>4.6223413163623999</v>
       </c>
       <c r="M19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D19)</f>
-        <v>0</v>
+        <v>-2.1653543307087002</v>
       </c>
       <c r="N19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D19)</f>
-        <v>0</v>
+        <v>-5.1948051948052001</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45297</v>
+        <v>45301</v>
       </c>
       <c r="E20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D20)</f>
-        <v>0</v>
+        <v>-1.5878321912083999</v>
       </c>
       <c r="F20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D20)</f>
-        <v>0</v>
+        <v>-0.6307904592943</v>
       </c>
       <c r="G20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D20)</f>
-        <v>0</v>
+        <v>-5.9399877526026001</v>
       </c>
       <c r="H20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D20)</f>
-        <v>0</v>
+        <v>-4.3792687826436003</v>
       </c>
       <c r="I20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D20)</f>
-        <v>0</v>
+        <v>-0.40485829959515002</v>
       </c>
       <c r="J20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D20)</f>
-        <v>0</v>
+        <v>-0.31152647975078002</v>
       </c>
       <c r="K20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D20)</f>
-        <v>0</v>
+        <v>-1.9549763033175001</v>
       </c>
       <c r="L20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D20)</f>
-        <v>0</v>
+        <v>-1.1669287428619</v>
       </c>
       <c r="M20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D20)</f>
-        <v>0</v>
+        <v>-0.70367474589523005</v>
       </c>
       <c r="N20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D20)</f>
-        <v>0</v>
+        <v>6.7961165048543997</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="E21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D21)</f>
-        <v>0</v>
+        <v>-1.9341091624324001</v>
       </c>
       <c r="F21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D21)</f>
-        <v>-4.1698100267470997</v>
+        <v>-1.7812197483059</v>
       </c>
       <c r="G21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D21)</f>
-        <v>-1.5182186234818</v>
+        <v>-6.1494252873562996</v>
       </c>
       <c r="H21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D21)</f>
-        <v>-2.0264317180617</v>
+        <v>0.28203062046736999</v>
       </c>
       <c r="I21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D21)</f>
-        <v>3.6885245901639001</v>
+        <v>0.40650406504066</v>
       </c>
       <c r="J21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D21)</f>
-        <v>1.4903129657228</v>
+        <v>-5.2817940395397001</v>
       </c>
       <c r="K21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D21)</f>
-        <v>-0.68493150684932003</v>
+        <v>-0.29533372711164002</v>
       </c>
       <c r="L21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D21)</f>
-        <v>-0.51724137931033998</v>
+        <v>-1.3391034539071001</v>
       </c>
       <c r="M21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D21)</f>
-        <v>0.66730219256434997</v>
+        <v>1.4274385408406001</v>
       </c>
       <c r="N21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D21)</f>
-        <v>-0.88235294117646001</v>
+        <v>0.51115241635687003</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="E22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D22)</f>
-        <v>-0.17699115044249</v>
+        <v>-3.5872313527181001</v>
       </c>
       <c r="F22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D22)</f>
-        <v>2.0149723640942998</v>
+        <v>0.19398642095054</v>
       </c>
       <c r="G22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D22)</f>
-        <v>-1.3409415121254999</v>
+        <v>8.2762912258867996</v>
       </c>
       <c r="H22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D22)</f>
-        <v>-0.26362038664324</v>
+        <v>-10.007251631617001</v>
       </c>
       <c r="I22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D22)</f>
-        <v>-0.61099796334013001</v>
+        <v>-1.6</v>
       </c>
       <c r="J22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D22)</f>
-        <v>0</v>
+        <v>-2.1933621933622001</v>
       </c>
       <c r="K22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D22)</f>
-        <v>-0.90497737556560998</v>
+        <v>-3.9705048213273</v>
       </c>
       <c r="L22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D22)</f>
-        <v>-1.7615176151762</v>
+        <v>-3.1857707509880999</v>
       </c>
       <c r="M22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D22)</f>
-        <v>2.2417153996100998</v>
+        <v>-0.19786307874951001</v>
       </c>
       <c r="N22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D22)</f>
-        <v>-0.29325513196482</v>
+        <v>10.020449897751</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="E23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D23)</f>
-        <v>-0.61565523306947001</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D23)</f>
-        <v>2.3487289652703001</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D23)</f>
-        <v>-0.56737588652482995</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D23)</f>
-        <v>-1.9810508182601001</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D23)</f>
-        <v>-0.30456852791877997</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D23)</f>
-        <v>0.29895366218236002</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D23)</f>
-        <v>1.1441647597254001</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D23)</f>
-        <v>1.2345679012346</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D23)</f>
-        <v>1.4836795252226</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D23)</f>
-        <v>-0.87209302325580995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="E24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D24)</f>
-        <v>2.9891304347826</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D24)</f>
-        <v>1.9268666520691999</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D24)</f>
-        <v>-3.1061022539856999</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D24)</f>
-        <v>8.6206896551722006E-2</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D24)</f>
-        <v>-1.5984015984016</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D24)</f>
@@ -1639,129 +1647,129 @@
       </c>
       <c r="L24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D24)</f>
-        <v>-1.3865404125803</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D24)</f>
-        <v>4.3343653250773997</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D24)</f>
-        <v>0.29154518950436997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="E25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D25)</f>
-        <v>0</v>
+        <v>-4.9707163237723</v>
       </c>
       <c r="F25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D25)</f>
-        <v>0</v>
+        <v>-5.4128440366973001</v>
       </c>
       <c r="G25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D25)</f>
-        <v>0</v>
+        <v>7.4197860962566997</v>
       </c>
       <c r="H25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D25)</f>
-        <v>0</v>
+        <v>7.1900505246793998</v>
       </c>
       <c r="I25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D25)</f>
-        <v>0</v>
+        <v>-1.7681728880156999</v>
       </c>
       <c r="J25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D25)</f>
-        <v>0</v>
+        <v>-1.7578678763822</v>
       </c>
       <c r="K25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D25)</f>
-        <v>0</v>
+        <v>-2.7041942604856999</v>
       </c>
       <c r="L25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D25)</f>
-        <v>0</v>
+        <v>-3.3022473627886</v>
       </c>
       <c r="M25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D25)</f>
-        <v>0</v>
+        <v>-3.6599313762866998</v>
       </c>
       <c r="N25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D25)</f>
-        <v>0</v>
+        <v>5.6155507559395001</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45291</v>
+        <v>45295</v>
       </c>
       <c r="E26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D26)</f>
-        <v>0</v>
+        <v>3.8035853468432999</v>
       </c>
       <c r="F26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D26)</f>
-        <v>0</v>
+        <v>-3.1971580817051</v>
       </c>
       <c r="G26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D26)</f>
-        <v>0</v>
+        <v>-0.26666666666666999</v>
       </c>
       <c r="H26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D26)</f>
-        <v>0</v>
+        <v>10.004275331338</v>
       </c>
       <c r="I26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D26)</f>
-        <v>0</v>
+        <v>0.39447731755422999</v>
       </c>
       <c r="J26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D26)</f>
-        <v>0</v>
+        <v>-2.5017277125085999</v>
       </c>
       <c r="K26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D26)</f>
-        <v>0</v>
+        <v>-0.22026431718060999</v>
       </c>
       <c r="L26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D26)</f>
-        <v>0</v>
+        <v>1.7737669208029001</v>
       </c>
       <c r="M26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D26)</f>
-        <v>0</v>
+        <v>0.38270187523919003</v>
       </c>
       <c r="N26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D26)</f>
-        <v>0</v>
+        <v>-7.1213640922768002</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45290</v>
+        <v>45294</v>
       </c>
       <c r="E27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D27)</f>
-        <v>0</v>
+        <v>-4.0532455877954003</v>
       </c>
       <c r="F27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D27)</f>
-        <v>0</v>
+        <v>-1.521777155851</v>
       </c>
       <c r="G27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D27)</f>
-        <v>0</v>
+        <v>-2.9126213592233001</v>
       </c>
       <c r="H27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D27)</f>
-        <v>0</v>
+        <v>-1.7226890756302999</v>
       </c>
       <c r="I27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D27)</f>
@@ -1769,145 +1777,145 @@
       </c>
       <c r="J27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D27)</f>
-        <v>0</v>
+        <v>-0.13802622498275999</v>
       </c>
       <c r="K27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D27)</f>
-        <v>0</v>
+        <v>2.5988700564972</v>
       </c>
       <c r="L27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D27)</f>
-        <v>0</v>
+        <v>0.92650753768843996</v>
       </c>
       <c r="M27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D27)</f>
-        <v>0</v>
+        <v>-0.98522167487684997</v>
       </c>
       <c r="N27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D27)</f>
-        <v>0</v>
+        <v>-9.9774266365688007</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45289</v>
+        <v>45293</v>
       </c>
       <c r="E28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D28)</f>
-        <v>2.7932960893855001</v>
+        <v>-6.7503486750348998</v>
       </c>
       <c r="F28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D28)</f>
-        <v>0.81677704194259004</v>
+        <v>-6.3094067518846</v>
       </c>
       <c r="G28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D28)</f>
-        <v>-0.93941456773315002</v>
+        <v>2.8217755889790999</v>
       </c>
       <c r="H28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D28)</f>
-        <v>0.86956521739129999</v>
+        <v>-0.79199666527719004</v>
       </c>
       <c r="I28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D28)</f>
-        <v>9.9999999999997993E-2</v>
+        <v>0.19762845849804</v>
       </c>
       <c r="J28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D28)</f>
-        <v>-0.59435364041604999</v>
+        <v>-7.1153846153845999</v>
       </c>
       <c r="K28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D28)</f>
-        <v>-0.45558086560362998</v>
+        <v>1.5490533562822999</v>
       </c>
       <c r="L28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D28)</f>
-        <v>-0.30343897505056999</v>
+        <v>-2.6001835423677</v>
       </c>
       <c r="M28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D28)</f>
-        <v>0</v>
+        <v>-1.6032811334824999</v>
       </c>
       <c r="N28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D28)</f>
-        <v>0</v>
+        <v>9.9801390268122994</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45288</v>
+        <v>45292</v>
       </c>
       <c r="E29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D29)</f>
-        <v>1.3207547169811</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D29)</f>
-        <v>-7.3529411764701999E-2</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D29)</f>
-        <v>3.0877192982456001</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D29)</f>
-        <v>0.43668122270742998</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D29)</f>
-        <v>2.9866117404737</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D29)</f>
-        <v>1.203007518797</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D29)</f>
-        <v>1.6203703703704</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D29)</f>
-        <v>6.3082437275986001</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D29)</f>
-        <v>-3.2934131736526999</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D29)</f>
-        <v>-0.86705202312137997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45287</v>
+        <v>45291</v>
       </c>
       <c r="E30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D30)</f>
-        <v>-3.9855072463768</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D30)</f>
-        <v>-0.62837936577525</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D30)</f>
-        <v>-1.2610864745010999</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D30)</f>
-        <v>3.5262206148281998</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D30)</f>
-        <v>1.2513034410845001</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D30)</f>
-        <v>1.5267175572519001</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D30)</f>
@@ -1915,363 +1923,363 @@
       </c>
       <c r="L30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D30)</f>
-        <v>-1.3088079235939001</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D30)</f>
-        <v>1.0080645161290001</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D30)</f>
-        <v>2.3668639053253999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45286</v>
+        <v>45290</v>
       </c>
       <c r="E31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D31)</f>
-        <v>-3.2427695004381998</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D31)</f>
-        <v>-6.5717415114986993E-2</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D31)</f>
-        <v>-1.9165420687779999</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D31)</f>
-        <v>-9.0334236675697996E-2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D31)</f>
-        <v>-0.92975206611570005</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D31)</f>
-        <v>-0.15243902439024001</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D31)</f>
-        <v>-0.23094688221709</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D31)</f>
-        <v>-0.70249385317877999</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D31)</f>
-        <v>0.71065989847716005</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D31)</f>
-        <v>-0.29498525073747001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45285</v>
+        <v>45289</v>
       </c>
       <c r="E32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D32)</f>
-        <v>1.875</v>
+        <v>7.1588701240472004</v>
       </c>
       <c r="F32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D32)</f>
-        <v>1.4895509115162</v>
+        <v>3.757864308791</v>
       </c>
       <c r="G32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D32)</f>
-        <v>1.4338894250655001</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D32)</f>
-        <v>-0.98389982110912</v>
+        <v>4.5315904139434</v>
       </c>
       <c r="I32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D32)</f>
-        <v>0.10341261633918999</v>
+        <v>1.6064257028111999</v>
       </c>
       <c r="J32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D32)</f>
-        <v>0.15267175572519001</v>
+        <v>3.8476900545866002</v>
       </c>
       <c r="K32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D32)</f>
-        <v>-0.23041474654377</v>
+        <v>5</v>
       </c>
       <c r="L32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D32)</f>
-        <v>0.85015940488841002</v>
+        <v>-1.3876319758672999</v>
       </c>
       <c r="M32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D32)</f>
-        <v>3.2494758909853001</v>
+        <v>1.2839879154078999</v>
       </c>
       <c r="N32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D32)</f>
-        <v>2.4169184290030001</v>
+        <v>1.0030090270812</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45284</v>
+        <v>45288</v>
       </c>
       <c r="E33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D33)</f>
-        <v>0</v>
+        <v>-0.57949479940564996</v>
       </c>
       <c r="F33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D33)</f>
-        <v>0</v>
+        <v>4.4397087551057002</v>
       </c>
       <c r="G33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D33)</f>
-        <v>0</v>
+        <v>-7.9142510448968997</v>
       </c>
       <c r="H33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D33)</f>
-        <v>0</v>
+        <v>6.6449814126393996</v>
       </c>
       <c r="I33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D33)</f>
-        <v>0</v>
+        <v>2.8925619834710998</v>
       </c>
       <c r="J33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D33)</f>
-        <v>0</v>
+        <v>0.81879194630871999</v>
       </c>
       <c r="K33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D33)</f>
-        <v>0</v>
+        <v>0.60606060606060996</v>
       </c>
       <c r="L33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D33)</f>
-        <v>0</v>
+        <v>2.3148148148147998</v>
       </c>
       <c r="M33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D33)</f>
-        <v>0</v>
+        <v>3.1956352299298998</v>
       </c>
       <c r="N33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D33)</f>
-        <v>0</v>
+        <v>9.9834528405956995</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45283</v>
+        <v>45287</v>
       </c>
       <c r="E34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D34)</f>
-        <v>0</v>
+        <v>-0.51736881005174995</v>
       </c>
       <c r="F34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D34)</f>
-        <v>0</v>
+        <v>3.5871964679912001</v>
       </c>
       <c r="G34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D34)</f>
-        <v>0</v>
+        <v>-3.1217345872518001</v>
       </c>
       <c r="H34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D34)</f>
-        <v>0</v>
+        <v>4.9756097560976</v>
       </c>
       <c r="I34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D34)</f>
-        <v>0</v>
+        <v>1.0438413361169001</v>
       </c>
       <c r="J34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D34)</f>
-        <v>0</v>
+        <v>4.8114800225099001</v>
       </c>
       <c r="K34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D34)</f>
-        <v>0</v>
+        <v>-3.3957845433255001</v>
       </c>
       <c r="L34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D34)</f>
-        <v>0</v>
+        <v>-1.1290814769605999</v>
       </c>
       <c r="M34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D34)</f>
-        <v>0</v>
+        <v>2.6810724289715999</v>
       </c>
       <c r="N34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D34)</f>
-        <v>0</v>
+        <v>10.01213592233</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45282</v>
+        <v>45286</v>
       </c>
       <c r="E35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D35)</f>
-        <v>-3.7800687285222998</v>
+        <v>-2.1267361111111001</v>
       </c>
       <c r="F35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D35)</f>
-        <v>-0.31764792790131002</v>
+        <v>-1.1995637949836</v>
       </c>
       <c r="G35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D35)</f>
-        <v>-0.98293515358362005</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D35)</f>
-        <v>-2.6132404181185001</v>
+        <v>-4.4289044289044002</v>
       </c>
       <c r="I35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D35)</f>
-        <v>0.31120331950206997</v>
+        <v>-2.6422764227641999</v>
       </c>
       <c r="J35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D35)</f>
-        <v>0.15290519877676001</v>
+        <v>-1.4830214830215001</v>
       </c>
       <c r="K35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D35)</f>
-        <v>0.46296296296294998</v>
+        <v>-5.0055617352614004</v>
       </c>
       <c r="L35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D35)</f>
-        <v>0.46263345195729</v>
+        <v>-1.790664568817</v>
       </c>
       <c r="M35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D35)</f>
-        <v>1.2738853503184999</v>
+        <v>-1.2643224022126001</v>
       </c>
       <c r="N35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D35)</f>
-        <v>-0.30120481927710002</v>
+        <v>10.013351134845999</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45281</v>
+        <v>45285</v>
       </c>
       <c r="E36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D36)</f>
-        <v>10.018903591681999</v>
+        <v>4.7114073625208004</v>
       </c>
       <c r="F36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D36)</f>
-        <v>0.73671677332937002</v>
+        <v>-1.9076484221786001</v>
       </c>
       <c r="G36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D36)</f>
-        <v>1.1600607650877</v>
+        <v>7.8400991633096</v>
       </c>
       <c r="H36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D36)</f>
-        <v>-5.7471264367816</v>
+        <v>1.2747875354108</v>
       </c>
       <c r="I36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D36)</f>
-        <v>0</v>
+        <v>1.4432989690722</v>
       </c>
       <c r="J36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D36)</f>
-        <v>0.30674846625767999</v>
+        <v>-0.90646889163576005</v>
       </c>
       <c r="K36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D36)</f>
-        <v>0</v>
+        <v>-5.0184891706285999</v>
       </c>
       <c r="L36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D36)</f>
-        <v>2.1446746637585998</v>
+        <v>-1.2649800266311999</v>
       </c>
       <c r="M36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D36)</f>
-        <v>0.10626992561105</v>
+        <v>-0.58915946582876</v>
       </c>
       <c r="N36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D36)</f>
-        <v>0.60606060606060996</v>
+        <v>9.9853157121879992</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45280</v>
+        <v>45284</v>
       </c>
       <c r="E37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D37)</f>
-        <v>-0.2827521206409</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D37)</f>
-        <v>-5.9497248252278E-2</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D37)</f>
-        <v>-0.68577698532437004</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D37)</f>
-        <v>2.8716216216216002</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D37)</f>
-        <v>-0.10362694300517999</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D37)</f>
-        <v>0.15360983102917999</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D37)</f>
-        <v>-2.0408163265305999</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D37)</f>
-        <v>-1.1498383039885001</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D37)</f>
-        <v>-0.52854122621565003</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D37)</f>
-        <v>-0.30211480362538001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45279</v>
+        <v>45283</v>
       </c>
       <c r="E38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D38)</f>
-        <v>0.95147478591817003</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D38)</f>
-        <v>-0.32616753150481997</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D38)</f>
-        <v>-0.82970620239391002</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D38)</f>
-        <v>-9.9619771863118007</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D38)</f>
-        <v>-0.20682523267837999</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D38)</f>
@@ -2279,409 +2287,409 @@
       </c>
       <c r="K38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D38)</f>
-        <v>0.68493150684932003</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D38)</f>
-        <v>0.43305665824611</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D38)</f>
-        <v>-0.63025210084032002</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D38)</f>
-        <v>-0.30120481927710002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="E39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D39)</f>
-        <v>-1.3145539906103001</v>
+        <v>-2.9264705882353002</v>
       </c>
       <c r="F39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D39)</f>
-        <v>0.59656972408650999</v>
+        <v>-1.0758377425043999</v>
       </c>
       <c r="G39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D39)</f>
-        <v>0.19078768056691001</v>
+        <v>1.1123296255679</v>
       </c>
       <c r="H39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D39)</f>
-        <v>-9.9931553730322005</v>
+        <v>2.7656477438136999</v>
       </c>
       <c r="I39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D39)</f>
-        <v>-0.41194644696190003</v>
+        <v>-2.4144869215292002</v>
       </c>
       <c r="J39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D39)</f>
-        <v>-0.45871559633027997</v>
+        <v>-2.6604278074866001</v>
       </c>
       <c r="K39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D39)</f>
-        <v>-0.90497737556560998</v>
+        <v>3.3861277990168999</v>
       </c>
       <c r="L39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D39)</f>
-        <v>-2.8060329708873999</v>
+        <v>1.6390977443609001</v>
       </c>
       <c r="M39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D39)</f>
-        <v>0.21052631578947001</v>
+        <v>-0.15686274509803999</v>
       </c>
       <c r="N39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D39)</f>
-        <v>0.91185410334345995</v>
+        <v>-2.8530670470756001</v>
       </c>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45277</v>
+        <v>45281</v>
       </c>
       <c r="E40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D40)</f>
-        <v>0</v>
+        <v>1.1904761904762</v>
       </c>
       <c r="F40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D40)</f>
-        <v>0</v>
+        <v>1.3585984983910999</v>
       </c>
       <c r="G40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D40)</f>
-        <v>0</v>
+        <v>8.0399458361544003</v>
       </c>
       <c r="H40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D40)</f>
-        <v>0</v>
+        <v>2.7417746759721</v>
       </c>
       <c r="I40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D40)</f>
-        <v>0</v>
+        <v>1.0162601626015999</v>
       </c>
       <c r="J40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D40)</f>
-        <v>0</v>
+        <v>3.9610840861708998</v>
       </c>
       <c r="K40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D40)</f>
-        <v>0</v>
+        <v>-0.48913043478260998</v>
       </c>
       <c r="L40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D40)</f>
-        <v>0</v>
+        <v>-1.9174041297935001</v>
       </c>
       <c r="M40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D40)</f>
-        <v>0</v>
+        <v>1.2708498808577999</v>
       </c>
       <c r="N40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D40)</f>
-        <v>0</v>
+        <v>-1.0585744530698999</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45276</v>
+        <v>45280</v>
       </c>
       <c r="E41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D41)</f>
-        <v>0</v>
+        <v>3.9282400247448002</v>
       </c>
       <c r="F41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D41)</f>
-        <v>0</v>
+        <v>-2.1172353455818</v>
       </c>
       <c r="G41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D41)</f>
-        <v>0</v>
+        <v>2.5338424158278001</v>
       </c>
       <c r="H41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D41)</f>
-        <v>0</v>
+        <v>-0.84033613445378996</v>
       </c>
       <c r="I41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D41)</f>
-        <v>0</v>
+        <v>-0.80645161290322998</v>
       </c>
       <c r="J41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D41)</f>
-        <v>0</v>
+        <v>-2.3744911804613</v>
       </c>
       <c r="K41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D41)</f>
-        <v>0</v>
+        <v>1.6013252346769999</v>
       </c>
       <c r="L41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D41)</f>
-        <v>0</v>
+        <v>-3.0042918454935998</v>
       </c>
       <c r="M41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D41)</f>
-        <v>0</v>
+        <v>-0.86614173228346003</v>
       </c>
       <c r="N41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D41)</f>
-        <v>0</v>
+        <v>10.015527950311</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45275</v>
+        <v>45279</v>
       </c>
       <c r="E42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D42)</f>
-        <v>2.8985507246376998</v>
+        <v>4.0721068726862999</v>
       </c>
       <c r="F42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D42)</f>
-        <v>-1.5707574867880001</v>
+        <v>-1.8715659340659001</v>
       </c>
       <c r="G42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D42)</f>
-        <v>-1.6485725774025</v>
+        <v>10.003818251241</v>
       </c>
       <c r="H42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D42)</f>
-        <v>10.015060240964001</v>
+        <v>0.44687189672293998</v>
       </c>
       <c r="I42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D42)</f>
-        <v>-0.20554984583760999</v>
+        <v>0.60851926977687998</v>
       </c>
       <c r="J42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D42)</f>
-        <v>0</v>
+        <v>-0.18959913326111</v>
       </c>
       <c r="K42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D42)</f>
-        <v>-1.1185682326622</v>
+        <v>1.0039040713887</v>
       </c>
       <c r="L42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D42)</f>
-        <v>7.0200070200080997E-2</v>
+        <v>-1.2432890647074999</v>
       </c>
       <c r="M42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D42)</f>
-        <v>-0.62761506276151002</v>
+        <v>-1.1673151750973001</v>
       </c>
       <c r="N42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D42)</f>
-        <v>-2.6627218934911001</v>
+        <v>4.0387722132472001</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45274</v>
+        <v>45278</v>
       </c>
       <c r="E43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D43)</f>
-        <v>3.3966033966034002</v>
+        <v>6.6975785677486002</v>
       </c>
       <c r="F43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D43)</f>
-        <v>-3.0251263435119999</v>
+        <v>-2.8361695028362002</v>
       </c>
       <c r="G43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D43)</f>
-        <v>0.78346616236661004</v>
+        <v>-0.24757189106836</v>
       </c>
       <c r="H43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D43)</f>
-        <v>10.024855012427</v>
+        <v>-1.66015625</v>
       </c>
       <c r="I43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D43)</f>
-        <v>-0.51124744376276998</v>
+        <v>-2.3762376237624001</v>
       </c>
       <c r="J43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D43)</f>
-        <v>-0.60790273556231</v>
+        <v>-1.6253663735677999</v>
       </c>
       <c r="K43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D43)</f>
-        <v>-0.22321428571429999</v>
+        <v>0.56085249579360996</v>
       </c>
       <c r="L43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D43)</f>
-        <v>0.60028248587569999</v>
+        <v>2.8405375953504999</v>
       </c>
       <c r="M43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D43)</f>
-        <v>-0.41666666666666002</v>
+        <v>-2.6146267525578</v>
       </c>
       <c r="N43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D43)</f>
-        <v>-0.29498525073747001</v>
+        <v>-4.5489591364687998</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45273</v>
+        <v>45277</v>
       </c>
       <c r="E44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D44)</f>
-        <v>-0.29880478087648998</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D44)</f>
-        <v>-0.69974554707378001</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D44)</f>
-        <v>-1.6865869853918001</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D44)</f>
-        <v>10.027347310848</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D44)</f>
-        <v>-1.7085427135678</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D44)</f>
-        <v>-1.0526315789473999</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D44)</f>
-        <v>-1.1037527593819001</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D44)</f>
-        <v>-2.8473413379074</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D44)</f>
-        <v>-1.6393442622951</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D44)</f>
-        <v>-0.29411764705881999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45272</v>
+        <v>45276</v>
       </c>
       <c r="E45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D45)</f>
-        <v>2.0325203252031998</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D45)</f>
-        <v>-3.9576403502817001</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D45)</f>
-        <v>-1.8380915134924001</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D45)</f>
-        <v>10.030090270812</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D45)</f>
-        <v>1.2207527975585</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D45)</f>
-        <v>0.91047040971169002</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D45)</f>
-        <v>0.89086859688195996</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D45)</f>
-        <v>-1.4869888475835999</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D45)</f>
-        <v>0.30832476875642001</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D45)</f>
-        <v>-1.4492753623187999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45271</v>
+        <v>45275</v>
       </c>
       <c r="E46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D46)</f>
-        <v>1.4432989690722</v>
+        <v>-5.0391389432485001</v>
       </c>
       <c r="F46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D46)</f>
-        <v>-1.8456823027719</v>
+        <v>0.26764804282367999</v>
       </c>
       <c r="G46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D46)</f>
-        <v>0.93421052631578005</v>
+        <v>9.9916212819438996</v>
       </c>
       <c r="H46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D46)</f>
-        <v>1.1156186612576</v>
+        <v>-1.4436958614052</v>
       </c>
       <c r="I46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D46)</f>
-        <v>0.10183299389002</v>
+        <v>-0.19762845849801999</v>
       </c>
       <c r="J46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D46)</f>
-        <v>0.76452599388378994</v>
+        <v>1.5284728797511</v>
       </c>
       <c r="K46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D46)</f>
-        <v>1.1261261261261</v>
+        <v>0.39414414414413002</v>
       </c>
       <c r="L46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D46)</f>
-        <v>-1.0367892976588999</v>
+        <v>-1.5801515801516</v>
       </c>
       <c r="M46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D46)</f>
-        <v>1.8848167539267</v>
+        <v>0.87920489296635995</v>
       </c>
       <c r="N46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D46)</f>
-        <v>-1.9886363636364</v>
+        <v>-0.91673032849503</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45270</v>
+        <v>45274</v>
       </c>
       <c r="E47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D47)</f>
-        <v>0</v>
+        <v>-4.5454545454544997</v>
       </c>
       <c r="F47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D47)</f>
-        <v>0</v>
+        <v>0.13400335008375</v>
       </c>
       <c r="G47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D47)</f>
-        <v>0</v>
+        <v>-2.0942408376959001E-2</v>
       </c>
       <c r="H47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D47)</f>
-        <v>0</v>
+        <v>-0.85877862595419996</v>
       </c>
       <c r="I47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D47)</f>
@@ -2689,689 +2697,689 @@
       </c>
       <c r="J47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D47)</f>
-        <v>0</v>
+        <v>-2.2089947089947</v>
       </c>
       <c r="K47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D47)</f>
-        <v>0</v>
+        <v>0.56625141562854997</v>
       </c>
       <c r="L47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D47)</f>
-        <v>0</v>
+        <v>-0.42007831968670001</v>
       </c>
       <c r="M47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D47)</f>
-        <v>0</v>
+        <v>-0.90909090909089996</v>
       </c>
       <c r="N47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D47)</f>
-        <v>0</v>
+        <v>-3.1088082901553999</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45269</v>
+        <v>45273</v>
       </c>
       <c r="E48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D48)</f>
-        <v>0</v>
+        <v>9.7181895815541992</v>
       </c>
       <c r="F48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D48)</f>
-        <v>0</v>
+        <v>-1.0770505385253</v>
       </c>
       <c r="G48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D48)</f>
-        <v>0</v>
+        <v>0.80219548237282001</v>
       </c>
       <c r="H48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D48)</f>
-        <v>0</v>
+        <v>0.14333492594363001</v>
       </c>
       <c r="I48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D48)</f>
-        <v>0</v>
+        <v>-0.58939096267191005</v>
       </c>
       <c r="J48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D48)</f>
-        <v>0</v>
+        <v>-0.81343479401732</v>
       </c>
       <c r="K48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D48)</f>
-        <v>0</v>
+        <v>0.45506257110353998</v>
       </c>
       <c r="L48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D48)</f>
-        <v>0</v>
+        <v>3.5461515777057002</v>
       </c>
       <c r="M48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D48)</f>
-        <v>0</v>
+        <v>-1.2715033657442001</v>
       </c>
       <c r="N48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D48)</f>
-        <v>0</v>
+        <v>-3.2927702219041</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D49" s="6">
         <f t="shared" ref="D49" ca="1" si="1">D48-1</f>
-        <v>45268</v>
+        <v>45272</v>
       </c>
       <c r="E49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D49)</f>
-        <v>-3.1936127744511</v>
+        <v>0.63595737366792005</v>
       </c>
       <c r="F49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D49)</f>
-        <v>2.5206639797801</v>
+        <v>-0.21494708994708001</v>
       </c>
       <c r="G49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D49)</f>
-        <v>0.66225165562914001</v>
+        <v>-1.9254658385093</v>
       </c>
       <c r="H49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D49)</f>
-        <v>-2.3762376237624001</v>
+        <v>-0.14312977099237001</v>
       </c>
       <c r="I49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D49)</f>
-        <v>0.10193679918449999</v>
+        <v>0.39447731755422999</v>
       </c>
       <c r="J49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D49)</f>
-        <v>0.15313935681470001</v>
+        <v>-0.18334206390780999</v>
       </c>
       <c r="K49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D49)</f>
-        <v>0.45248868778281998</v>
+        <v>3.6556603773585001</v>
       </c>
       <c r="L49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D49)</f>
-        <v>1.2529630883847001</v>
+        <v>2.2540520165850002</v>
       </c>
       <c r="M49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D49)</f>
-        <v>-0.31315240083507001</v>
+        <v>-1.1460258780037</v>
       </c>
       <c r="N49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D49)</f>
-        <v>0.28490028490029001</v>
+        <v>1.9708029197079999</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50" s="6">
         <f t="shared" ref="D50" ca="1" si="2">D49-1</f>
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="E50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D50)</f>
-        <v>-0.19920318725099001</v>
+        <v>1.7666608361028</v>
       </c>
       <c r="F50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D50)</f>
-        <v>-2.4066666666667</v>
+        <v>2.3523438822135998</v>
       </c>
       <c r="G50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D50)</f>
-        <v>-0.86659663865545999</v>
+        <v>0.31152647975078002</v>
       </c>
       <c r="H50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D50)</f>
-        <v>-1.4634146341462999</v>
+        <v>1.2560386473430001</v>
       </c>
       <c r="I50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D50)</f>
-        <v>0.10204081632653</v>
+        <v>2.4242424242423999</v>
       </c>
       <c r="J50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D50)</f>
-        <v>0.46153846153847</v>
+        <v>-3.9272156041368002E-2</v>
       </c>
       <c r="K50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D50)</f>
-        <v>-0.67415730337079005</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D50)</f>
-        <v>0.20359687818121</v>
+        <v>0.59149162053537996</v>
       </c>
       <c r="M50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D50)</f>
-        <v>-0.72538860103627001</v>
+        <v>0.22230455724343001</v>
       </c>
       <c r="N50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D50)</f>
-        <v>0.86206896551723999</v>
+        <v>5.6283731688512004</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51" s="6">
         <f t="shared" ref="D51" ca="1" si="3">D50-1</f>
-        <v>45266</v>
+        <v>45270</v>
       </c>
       <c r="E51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D51)</f>
-        <v>0.29970029970029</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D51)</f>
-        <v>4.0077659131881997</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D51)</f>
-        <v>1.9544846050869999</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D51)</f>
-        <v>0.49019607843138002</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D51)</f>
-        <v>0.92687950566426003</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D51)</f>
-        <v>1.0886469673406001</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D51)</f>
-        <v>-0.89086859688195996</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D51)</f>
-        <v>0.40885860306643002</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D51)</f>
-        <v>1.3655462184874001</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D51)</f>
-        <v>0.28818443804034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52" s="6">
         <f t="shared" ref="D52" ca="1" si="4">D51-1</f>
-        <v>45265</v>
+        <v>45269</v>
       </c>
       <c r="E52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D52)</f>
-        <v>-0.89108910891088999</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D52)</f>
-        <v>-1.0429532043365</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D52)</f>
-        <v>-3.3134869272585998</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D52)</f>
-        <v>-1.8286814244466001</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D52)</f>
-        <v>-2.2155085599194</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D52)</f>
-        <v>-1.9817073170732</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D52)</f>
-        <v>-2.3913043478260998</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D52)</f>
-        <v>-2.4916943521595001</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D52)</f>
-        <v>-1.3471502590674</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D52)</f>
-        <v>-0.85714285714284999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D53" s="6">
         <f t="shared" ref="D53" ca="1" si="5">D52-1</f>
-        <v>45264</v>
+        <v>45268</v>
       </c>
       <c r="E53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D53)</f>
-        <v>1</v>
+        <v>4.3057836161283998</v>
       </c>
       <c r="F53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D53)</f>
-        <v>1.4973187547879001</v>
+        <v>2.3735273735273998</v>
       </c>
       <c r="G53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D53)</f>
-        <v>-6.9156626506023997</v>
+        <v>0.41710114702814999</v>
       </c>
       <c r="H53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D53)</f>
-        <v>0.97181729834791997</v>
+        <v>-0.76701821668265002</v>
       </c>
       <c r="I53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D53)</f>
-        <v>-0.40120361083250999</v>
+        <v>-3.3203125</v>
       </c>
       <c r="J53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D53)</f>
-        <v>-1.2048192771084001</v>
+        <v>1.1520127118643999</v>
       </c>
       <c r="K53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D53)</f>
-        <v>-0.43290043290044</v>
+        <v>3.1630170316302002</v>
       </c>
       <c r="L53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D53)</f>
-        <v>-1.2143091565474</v>
+        <v>1.2204482652748001</v>
       </c>
       <c r="M53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D53)</f>
-        <v>1.7932489451477001</v>
+        <v>3.7064492216449002E-2</v>
       </c>
       <c r="N53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D53)</f>
-        <v>1.4492753623187999</v>
+        <v>3.5942492012780001</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54" s="6">
         <f t="shared" ref="D54:D65" ca="1" si="6">D53-1</f>
-        <v>45263</v>
+        <v>45267</v>
       </c>
       <c r="E54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D54)</f>
-        <v>0</v>
+        <v>0.38461538461539002</v>
       </c>
       <c r="F54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D54)</f>
-        <v>0</v>
+        <v>-2.9915966386555</v>
       </c>
       <c r="G54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D54)</f>
-        <v>0</v>
+        <v>1.2671594508976001</v>
       </c>
       <c r="H54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D54)</f>
-        <v>0</v>
+        <v>-0.42959427207637002</v>
       </c>
       <c r="I54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D54)</f>
-        <v>0</v>
+        <v>3.2258064516128999</v>
       </c>
       <c r="J54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D54)</f>
-        <v>0</v>
+        <v>-1.8583495776478001</v>
       </c>
       <c r="K54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D54)</f>
-        <v>0</v>
+        <v>1.3563501849569</v>
       </c>
       <c r="L54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D54)</f>
-        <v>0</v>
+        <v>0.85152500387055996</v>
       </c>
       <c r="M54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D54)</f>
-        <v>0</v>
+        <v>0.70921985815602995</v>
       </c>
       <c r="N54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D54)</f>
-        <v>0</v>
+        <v>1.2126111560226001</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45262</v>
+        <v>45266</v>
       </c>
       <c r="E55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D55)</f>
-        <v>0</v>
+        <v>0.55248618784531001</v>
       </c>
       <c r="F55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D55)</f>
-        <v>0</v>
+        <v>-1.3594164456233</v>
       </c>
       <c r="G55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D55)</f>
-        <v>0</v>
+        <v>-0.25279123657045999</v>
       </c>
       <c r="H55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D55)</f>
-        <v>0</v>
+        <v>-0.47505938242280998</v>
       </c>
       <c r="I55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D55)</f>
-        <v>0</v>
+        <v>0.60851926977687998</v>
       </c>
       <c r="J55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D55)</f>
-        <v>0</v>
+        <v>-2.3229246001522998</v>
       </c>
       <c r="K55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D55)</f>
-        <v>0</v>
+        <v>-3.3373063170441002</v>
       </c>
       <c r="L55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D55)</f>
-        <v>0</v>
+        <v>-0.73766712770860998</v>
       </c>
       <c r="M55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D55)</f>
-        <v>0</v>
+        <v>-0.59369202226344997</v>
       </c>
       <c r="N55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D55)</f>
-        <v>0</v>
+        <v>2.0627062706271002</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D56" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45261</v>
+        <v>45265</v>
       </c>
       <c r="E56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D56)</f>
-        <v>0.1001001001001</v>
+        <v>-4.7535520084196001</v>
       </c>
       <c r="F56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D56)</f>
-        <v>0.41258741258741</v>
+        <v>-2.3632243444480001</v>
       </c>
       <c r="G56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D56)</f>
-        <v>0.48426150121065997</v>
+        <v>-1.0010427528676</v>
       </c>
       <c r="H56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D56)</f>
-        <v>0.19474196689386</v>
+        <v>-1.5434985968193999</v>
       </c>
       <c r="I56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D56)</f>
-        <v>0.30181086519116002</v>
+        <v>-0.80482897384305996</v>
       </c>
       <c r="J56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D56)</f>
-        <v>0.30211480362537002</v>
+        <v>-1.1543287327478</v>
       </c>
       <c r="K56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D56)</f>
-        <v>0.43478260869565999</v>
+        <v>-4.9830124575310997</v>
       </c>
       <c r="L56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D56)</f>
-        <v>-1.0392984735304001</v>
+        <v>-1.2669751915636001</v>
       </c>
       <c r="M56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D56)</f>
-        <v>1.6077170418005999</v>
+        <v>1.2396694214876001</v>
       </c>
       <c r="N56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D56)</f>
-        <v>-1.4285714285714</v>
+        <v>-1.7828200972446999</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="E57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D57)</f>
-        <v>-0.39880358923228998</v>
+        <v>2.6837175792507</v>
       </c>
       <c r="F57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D57)</f>
-        <v>3.9017656034294999</v>
+        <v>-9.6255119953189006</v>
       </c>
       <c r="G57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D57)</f>
-        <v>-1.4437417969216</v>
+        <v>-2.8368794326240998</v>
       </c>
       <c r="H57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D57)</f>
-        <v>-0.58083252662149998</v>
+        <v>-9.3457943925232004E-2</v>
       </c>
       <c r="I57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D57)</f>
-        <v>-0.30090270812438003</v>
+        <v>1.2219959266802001</v>
       </c>
       <c r="J57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D57)</f>
-        <v>0.15128593040846999</v>
+        <v>-6.1469618464437001</v>
       </c>
       <c r="K57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D57)</f>
-        <v>0</v>
+        <v>4.8071216617210997</v>
       </c>
       <c r="L57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D57)</f>
-        <v>-0.64536947402388001</v>
+        <v>-0.21953065859196999</v>
       </c>
       <c r="M57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D57)</f>
-        <v>0.86486486486487002</v>
+        <v>1.7973231357552999</v>
       </c>
       <c r="N57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D57)</f>
-        <v>1.4492753623187999</v>
+        <v>1.0647010647010999</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D58" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45259</v>
+        <v>45263</v>
       </c>
       <c r="E58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D58)</f>
-        <v>-0.39721946375373002</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D58)</f>
-        <v>2.7703106332138998</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D58)</f>
-        <v>-0.51044634377967002</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D58)</f>
-        <v>0.38872691933916997</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D58)</f>
-        <v>-2.5415444770283</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D58)</f>
-        <v>-1.6369047619048001</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D58)</f>
-        <v>-0.86206896551723999</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D58)</f>
-        <v>-2.1162349968414</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D58)</f>
-        <v>1.7601760176018</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D58)</f>
-        <v>-0.57636887608068998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D59" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45258</v>
+        <v>45262</v>
       </c>
       <c r="E59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D59)</f>
-        <v>1.5120967741936</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D59)</f>
-        <v>3.8139534883720998</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D59)</f>
-        <v>1.3352580295922001</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D59)</f>
-        <v>0.58651026392961003</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D59)</f>
-        <v>-1.1594202898551</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D59)</f>
-        <v>-0.73855243722303998</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D59)</f>
-        <v>0.21598272138228</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D59)</f>
-        <v>-9.4667087409280995E-2</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D59)</f>
-        <v>0.55309734513275</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D59)</f>
-        <v>-0.57306590257879997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D60" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45257</v>
+        <v>45261</v>
       </c>
       <c r="E60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D60)</f>
-        <v>-0.70070070070070001</v>
+        <v>0.67089755213056002</v>
       </c>
       <c r="F60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D60)</f>
-        <v>-0.62398890686387998</v>
+        <v>3.0138637733574001</v>
       </c>
       <c r="G60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D60)</f>
-        <v>-0.75214899713467998</v>
+        <v>1.0856206472757</v>
       </c>
       <c r="H60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D60)</f>
-        <v>0.19588638589617999</v>
+        <v>-1.8348623853210999</v>
       </c>
       <c r="I60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D60)</f>
-        <v>-0.86206896551723999</v>
+        <v>-0.60728744939271995</v>
       </c>
       <c r="J60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D60)</f>
-        <v>-0.44117647058824</v>
+        <v>0.21241444418221</v>
       </c>
       <c r="K60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D60)</f>
-        <v>-0.43010752688172998</v>
+        <v>1.2012012012012001</v>
       </c>
       <c r="L60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D60)</f>
-        <v>-1.7059553349876</v>
+        <v>-1.7843866171003999</v>
       </c>
       <c r="M60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D60)</f>
-        <v>0.78037904124859003</v>
+        <v>-0.30499428135723</v>
       </c>
       <c r="N60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D60)</f>
-        <v>-0.28571428571427998</v>
+        <v>-0.65093572009763001</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45256</v>
+        <v>45260</v>
       </c>
       <c r="E61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D61)</f>
-        <v>0</v>
+        <v>-3.4150612959719999</v>
       </c>
       <c r="F61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D61)</f>
-        <v>0</v>
+        <v>-3.3920512447226998</v>
       </c>
       <c r="G61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D61)</f>
-        <v>0</v>
+        <v>2.9957805907172999</v>
       </c>
       <c r="H61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D61)</f>
-        <v>0</v>
+        <v>-9.1659028414297003E-2</v>
       </c>
       <c r="I61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D61)</f>
-        <v>0</v>
+        <v>-0.4032258064516</v>
       </c>
       <c r="J61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D61)</f>
-        <v>0</v>
+        <v>-1.2584479142391001</v>
       </c>
       <c r="K61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D61)</f>
-        <v>0</v>
+        <v>-5.0199657729606999</v>
       </c>
       <c r="L61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D61)</f>
-        <v>0</v>
+        <v>-2.1462349945435002</v>
       </c>
       <c r="M61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D61)</f>
-        <v>0</v>
+        <v>3.8138825324185999E-2</v>
       </c>
       <c r="N61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D61)</f>
-        <v>0</v>
+        <v>-4.1341653666146998</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D62" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="E62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D62)</f>
-        <v>0</v>
+        <v>0.68770939869512004</v>
       </c>
       <c r="F62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D62)</f>
-        <v>0</v>
+        <v>6.6118267887629996</v>
       </c>
       <c r="G62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D62)</f>
-        <v>0</v>
+        <v>-0.85756117966953005</v>
       </c>
       <c r="H62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D62)</f>
-        <v>0</v>
+        <v>-0.54694621695533996</v>
       </c>
       <c r="I62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D62)</f>
@@ -3379,141 +3387,141 @@
       </c>
       <c r="J62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D62)</f>
-        <v>0</v>
+        <v>2.7784431137724002</v>
       </c>
       <c r="K62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D62)</f>
-        <v>0</v>
+        <v>0.57372346528974005</v>
       </c>
       <c r="L62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D62)</f>
-        <v>0</v>
+        <v>0.37975607974876002</v>
       </c>
       <c r="M62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D62)</f>
-        <v>0</v>
+        <v>1.4705882352941</v>
       </c>
       <c r="N62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D62)</f>
-        <v>0</v>
+        <v>-1.2326656394452999</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="E63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D63)</f>
-        <v>-9.9999999999997993E-2</v>
+        <v>1.9047619047619</v>
       </c>
       <c r="F63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D63)</f>
-        <v>0.62790697674419005</v>
+        <v>2.9397667359002999</v>
       </c>
       <c r="G63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D63)</f>
-        <v>-1.0864430798299001</v>
+        <v>1.4643463497453</v>
       </c>
       <c r="H63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D63)</f>
-        <v>-0.96993210475266001</v>
+        <v>-1.3489208633092999</v>
       </c>
       <c r="I63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D63)</f>
-        <v>0.28818443804034</v>
+        <v>-0.40160642570282001</v>
       </c>
       <c r="J63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D63)</f>
-        <v>0.44313146233383</v>
+        <v>-0.76063703351556999</v>
       </c>
       <c r="K63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D63)</f>
-        <v>-0.85287846481875995</v>
+        <v>2.8925619834710998</v>
       </c>
       <c r="L63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D63)</f>
-        <v>-2.9208069858475998</v>
+        <v>1.2047302291205</v>
       </c>
       <c r="M63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D63)</f>
-        <v>1.7006802721087999</v>
+        <v>2.9482071713146998</v>
       </c>
       <c r="N63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D63)</f>
-        <v>-2.2346368715084002</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="E64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D64)</f>
-        <v>-0.29910269192422001</v>
+        <v>2.1288309781610999</v>
       </c>
       <c r="F64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D64)</f>
-        <v>-0.16252612026933999</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D64)</f>
-        <v>0.53425145435118004</v>
+        <v>-2.9454170957775001</v>
       </c>
       <c r="H64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D64)</f>
-        <v>1.6765285996054999</v>
+        <v>5.6532066508312999</v>
       </c>
       <c r="I64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D64)</f>
-        <v>-0.38277511961721999</v>
+        <v>1.219512195122</v>
       </c>
       <c r="J64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D64)</f>
-        <v>0.14792899408283999</v>
+        <v>3.4932349323493002</v>
       </c>
       <c r="K64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D64)</f>
-        <v>0.21367521367523001</v>
+        <v>2.6666666666666998</v>
       </c>
       <c r="L64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D64)</f>
-        <v>0.1205908953874</v>
+        <v>1.7216750620254</v>
       </c>
       <c r="M64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D64)</f>
-        <v>1.3793103448276001</v>
+        <v>0.52062474969965</v>
       </c>
       <c r="N64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D64)</f>
-        <v>-0.27855153203341998</v>
+        <v>0.34013605442178002</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45252</v>
+        <v>45256</v>
       </c>
       <c r="E65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D65)</f>
-        <v>-2.6213592233009999</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D65)</f>
-        <v>1.5003927729772</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D65)</f>
-        <v>-3.0278609256274001</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D65)</f>
-        <v>-0.9765625</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D65)</f>
-        <v>-0.57088487155090994</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D65)</f>
@@ -3521,19 +3529,19 @@
       </c>
       <c r="K65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D65)</f>
-        <v>-1.2658227848101</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D65)</f>
-        <v>-1.5434847135648</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D65)</f>
-        <v>-0.22935779816515001</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D65)</f>
-        <v>-1.9125683060109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
